--- a/REGULAR/MANALO CYNTHIA.xlsx
+++ b/REGULAR/MANALO CYNTHIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67F1BD-F9FE-4D2C-9F49-EA206E2B2380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -246,12 +245,30 @@
   </si>
   <si>
     <t>10/17-18/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>MOURNING 11/21-25/2022</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/16-18/2022</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/28,29/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -892,7 +909,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -938,25 +954,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1263,34 +1279,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A69" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
+      <selection activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1327,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1347,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +1367,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1359,7 +1375,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1372,7 +1388,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1389,7 +1405,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1433,7 +1449,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>136.64699999999999</v>
+        <v>135.39699999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1443,12 +1459,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>166.625</v>
+        <v>165.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1468,7 +1484,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>44</v>
       </c>
@@ -1486,7 +1502,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -1506,7 +1522,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1526,7 +1542,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -1546,7 +1562,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -1566,7 +1582,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43221</v>
       </c>
@@ -1586,7 +1602,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43252</v>
       </c>
@@ -1606,7 +1622,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -1630,7 +1646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43313</v>
       </c>
@@ -1650,7 +1666,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43344</v>
       </c>
@@ -1670,7 +1686,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -1690,7 +1706,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -1710,7 +1726,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -1734,7 +1750,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>48</v>
       </c>
@@ -1752,7 +1768,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -1772,7 +1788,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -1792,7 +1808,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -1812,7 +1828,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -1832,7 +1848,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -1852,7 +1868,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -1872,7 +1888,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -1896,7 +1912,7 @@
         <v>43653</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>45</v>
@@ -1916,7 +1932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>45</v>
@@ -1936,7 +1952,7 @@
         <v>43716</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -1962,7 +1978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>51</v>
@@ -1984,7 +2000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>51</v>
@@ -2006,7 +2022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43709</v>
       </c>
@@ -2026,7 +2042,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43739</v>
       </c>
@@ -2046,7 +2062,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43770</v>
       </c>
@@ -2066,7 +2082,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43800</v>
       </c>
@@ -2086,7 +2102,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>55</v>
       </c>
@@ -2104,7 +2120,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43831</v>
       </c>
@@ -2126,7 +2142,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -2148,7 +2164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43891</v>
       </c>
@@ -2168,7 +2184,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43922</v>
       </c>
@@ -2188,7 +2204,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43952</v>
       </c>
@@ -2214,7 +2230,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43983</v>
       </c>
@@ -2236,7 +2252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44013</v>
       </c>
@@ -2258,7 +2274,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44044</v>
       </c>
@@ -2278,7 +2294,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44075</v>
       </c>
@@ -2298,7 +2314,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44105</v>
       </c>
@@ -2318,7 +2334,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44136</v>
       </c>
@@ -2338,7 +2354,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44166</v>
       </c>
@@ -2362,7 +2378,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>61</v>
       </c>
@@ -2380,7 +2396,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44197</v>
       </c>
@@ -2400,7 +2416,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44228</v>
       </c>
@@ -2420,7 +2436,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44256</v>
       </c>
@@ -2440,7 +2456,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44287</v>
       </c>
@@ -2460,7 +2476,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44317</v>
       </c>
@@ -2480,7 +2496,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44348</v>
       </c>
@@ -2500,7 +2516,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44378</v>
       </c>
@@ -2526,7 +2542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>45</v>
@@ -2548,7 +2564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -2570,7 +2586,7 @@
         <v>44447</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44409</v>
       </c>
@@ -2590,7 +2606,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44440</v>
       </c>
@@ -2610,7 +2626,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44470</v>
       </c>
@@ -2630,7 +2646,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44501</v>
       </c>
@@ -2650,7 +2666,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44531</v>
       </c>
@@ -2670,7 +2686,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>65</v>
       </c>
@@ -2688,7 +2704,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44562</v>
       </c>
@@ -2708,7 +2724,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44593</v>
       </c>
@@ -2728,7 +2744,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44621</v>
       </c>
@@ -2748,7 +2764,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44652</v>
       </c>
@@ -2768,7 +2784,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44682</v>
       </c>
@@ -2788,7 +2804,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44713</v>
       </c>
@@ -2808,7 +2824,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44743</v>
       </c>
@@ -2828,7 +2844,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44774</v>
       </c>
@@ -2848,7 +2864,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44805</v>
       </c>
@@ -2868,7 +2884,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44835</v>
       </c>
@@ -2894,15 +2910,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44866</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>5</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13">
@@ -2912,11 +2932,15 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
@@ -2925,14 +2949,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="39">
+        <v>3</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -2941,29 +2971,39 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="K82" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="40">
+        <v>44896</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -2978,39 +3018,47 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>44927</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="40">
+        <v>44958</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3026,7 +3074,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3042,7 +3090,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3058,7 +3106,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3074,7 +3122,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3090,7 +3138,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3106,7 +3154,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3122,7 +3170,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3138,7 +3186,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3154,7 +3202,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3170,7 +3218,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3186,7 +3234,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3202,7 +3250,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3218,7 +3266,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3234,7 +3282,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3250,7 +3298,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3266,7 +3314,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3282,7 +3330,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3298,7 +3346,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3314,7 +3362,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3330,7 +3378,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3346,7 +3394,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3362,7 +3410,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3378,7 +3426,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3394,7 +3442,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3410,7 +3458,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3426,7 +3474,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3442,7 +3490,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3458,7 +3506,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3474,7 +3522,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3490,7 +3538,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3506,7 +3554,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3522,7 +3570,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3538,7 +3586,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3554,7 +3602,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3570,7 +3618,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3586,7 +3634,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3602,7 +3650,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3618,7 +3666,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3634,7 +3682,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3650,7 +3698,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3666,7 +3714,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3682,7 +3730,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3698,21 +3746,53 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3728,16 +3808,16 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -3745,8 +3825,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                               OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3755,28 +3835,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3789,7 +3869,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3818,7 +3898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>81.397000000000006</v>
       </c>
@@ -3842,17 +3922,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3873,7 +3953,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3900,7 +3980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3926,7 +4006,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3952,7 +4032,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3978,7 +4058,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4004,7 +4084,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4030,7 +4110,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4056,7 +4136,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4082,7 +4162,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4102,7 +4182,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4122,7 +4202,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4142,7 +4222,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4163,7 +4243,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4184,7 +4264,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4205,7 +4285,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4226,7 +4306,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4247,7 +4327,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4268,7 +4348,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4289,7 +4369,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4310,7 +4390,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4331,7 +4411,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4352,7 +4432,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4373,7 +4453,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4394,7 +4474,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4415,7 +4495,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4436,7 +4516,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4457,7 +4537,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4478,7 +4558,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4499,7 +4579,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4520,7 +4600,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4541,7 +4621,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4562,7 +4642,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4571,7 +4651,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4580,7 +4660,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4589,7 +4669,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4598,7 +4678,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4607,7 +4687,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4616,7 +4696,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4625,7 +4705,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4634,7 +4714,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4643,7 +4723,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4652,7 +4732,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4661,7 +4741,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4670,7 +4750,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4679,7 +4759,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4688,7 +4768,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4697,7 +4777,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4706,7 +4786,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4715,7 +4795,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4724,7 +4804,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4733,7 +4813,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4742,7 +4822,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4751,7 +4831,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4760,7 +4840,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4769,7 +4849,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4778,7 +4858,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4787,7 +4867,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4796,7 +4876,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4805,7 +4885,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4814,7 +4894,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4823,7 +4903,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
